--- a/human_nmr_data_ANALIZED.xlsx
+++ b/human_nmr_data_ANALIZED.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="1051">
   <si>
     <t xml:space="preserve">uniprot_accession</t>
   </si>
@@ -1828,16 +1828,13 @@
     <t xml:space="preserve">1ity</t>
   </si>
   <si>
-    <t xml:space="preserve">T371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">371-439</t>
+    <t xml:space="preserve">374-439</t>
   </si>
   <si>
     <t xml:space="preserve">1iv6</t>
   </si>
   <si>
-    <t xml:space="preserve">370-439</t>
+    <t xml:space="preserve">373-439</t>
   </si>
   <si>
     <t xml:space="preserve">P55196</t>
@@ -3387,19 +3384,19 @@
   <dimension ref="A1:G896"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B115" activeCellId="0" sqref="B115"/>
+      <selection pane="bottomLeft" activeCell="B231" activeCellId="0" sqref="B231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.66"/>
   </cols>
   <sheetData>
@@ -8526,10 +8523,10 @@
         <v>599</v>
       </c>
       <c r="F223" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G223" s="0" t="s">
         <v>602</v>
-      </c>
-      <c r="G223" s="0" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8537,7 +8534,7 @@
         <v>595</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C224" s="0" t="s">
         <v>597</v>
@@ -8549,116 +8546,116 @@
         <v>599</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>602</v>
+        <v>12</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="C225" s="0" t="s">
+      <c r="D225" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="D225" s="0" t="s">
+      <c r="E225" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="E225" s="0" t="s">
+      <c r="F225" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G225" s="0" t="s">
         <v>610</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G225" s="0" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="D226" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="E226" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G226" s="0" t="s">
         <v>612</v>
-      </c>
-      <c r="C226" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="D226" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="E226" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G226" s="0" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C227" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="D227" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="D227" s="0" t="s">
+      <c r="E227" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="E227" s="0" t="s">
+      <c r="F227" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G227" s="0" t="s">
         <v>610</v>
-      </c>
-      <c r="F227" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G227" s="0" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C228" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="D228" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="D228" s="0" t="s">
+      <c r="E228" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="E228" s="0" t="s">
-        <v>610</v>
-      </c>
       <c r="F228" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="C229" s="0" t="s">
+      <c r="D229" s="0" t="s">
         <v>618</v>
-      </c>
-      <c r="D229" s="0" t="s">
-        <v>619</v>
       </c>
       <c r="E229" s="0" t="s">
         <v>490</v>
@@ -8667,21 +8664,21 @@
         <v>12</v>
       </c>
       <c r="G229" s="0" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C230" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="D230" s="0" t="s">
         <v>618</v>
-      </c>
-      <c r="D230" s="0" t="s">
-        <v>619</v>
       </c>
       <c r="E230" s="0" t="s">
         <v>490</v>
@@ -8690,21 +8687,21 @@
         <v>490</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C231" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="D231" s="0" t="s">
         <v>618</v>
-      </c>
-      <c r="D231" s="0" t="s">
-        <v>619</v>
       </c>
       <c r="E231" s="0" t="s">
         <v>490</v>
@@ -8713,2767 +8710,2767 @@
         <v>490</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="C232" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="C232" s="0" t="s">
+      <c r="D232" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="D232" s="0" t="s">
+      <c r="E232" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="E232" s="0" t="s">
+      <c r="F232" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G232" s="0" t="s">
         <v>629</v>
-      </c>
-      <c r="F232" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G232" s="0" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="D233" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G233" s="0" t="s">
         <v>631</v>
-      </c>
-      <c r="C233" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="D233" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="E233" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="F233" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G233" s="0" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="C234" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="C234" s="0" t="s">
+      <c r="D234" s="0" t="s">
         <v>635</v>
       </c>
-      <c r="D234" s="0" t="s">
+      <c r="E234" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="E234" s="0" t="s">
+      <c r="F234" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="G234" s="0" t="s">
         <v>637</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="G234" s="0" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C235" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="C235" s="0" t="s">
+      <c r="D235" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="E235" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="D235" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="E235" s="0" t="s">
+      <c r="F235" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G235" s="0" t="s">
         <v>642</v>
-      </c>
-      <c r="F235" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G235" s="0" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="C236" s="0" t="s">
+      <c r="D236" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="E236" s="0" t="s">
         <v>646</v>
       </c>
-      <c r="D236" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="E236" s="0" t="s">
+      <c r="F236" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G236" s="0" t="s">
         <v>647</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G236" s="0" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="F237" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C237" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="D237" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="E237" s="0" t="s">
-        <v>647</v>
-      </c>
-      <c r="F237" s="4" t="s">
+      <c r="G237" s="0" t="s">
         <v>650</v>
-      </c>
-      <c r="G237" s="0" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="C238" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="C238" s="0" t="s">
+      <c r="D238" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="E238" s="0" t="s">
         <v>654</v>
       </c>
-      <c r="D238" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="E238" s="0" t="s">
+      <c r="F238" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G238" s="0" t="s">
         <v>655</v>
-      </c>
-      <c r="F238" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G238" s="0" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="E239" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G239" s="0" t="s">
         <v>657</v>
-      </c>
-      <c r="C239" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="D239" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="E239" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="F239" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G239" s="0" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C240" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="E240" s="0" t="s">
         <v>654</v>
       </c>
-      <c r="D240" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="E240" s="0" t="s">
-        <v>655</v>
-      </c>
       <c r="F240" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C241" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="D241" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="E241" s="0" t="s">
         <v>654</v>
       </c>
-      <c r="D241" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="E241" s="0" t="s">
-        <v>655</v>
-      </c>
       <c r="F241" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C242" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="D242" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="E242" s="0" t="s">
         <v>654</v>
       </c>
-      <c r="D242" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="E242" s="0" t="s">
-        <v>655</v>
-      </c>
       <c r="F242" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="D243" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="E243" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G243" s="0" t="s">
         <v>662</v>
-      </c>
-      <c r="C243" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="D243" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="E243" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="F243" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G243" s="0" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="D244" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="E244" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G244" s="0" t="s">
         <v>664</v>
-      </c>
-      <c r="C244" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="D244" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="E244" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="F244" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G244" s="0" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C245" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="C245" s="0" t="s">
+      <c r="D245" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="E245" s="0" t="s">
         <v>668</v>
       </c>
-      <c r="D245" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="E245" s="0" t="s">
+      <c r="F245" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G245" s="0" t="s">
         <v>669</v>
-      </c>
-      <c r="F245" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G245" s="0" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="C246" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="C246" s="0" t="s">
+      <c r="D246" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="D246" s="0" t="s">
+      <c r="E246" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="E246" s="0" t="s">
+      <c r="F246" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G246" s="0" t="s">
         <v>675</v>
-      </c>
-      <c r="F246" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G246" s="0" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G247" s="0" t="s">
         <v>677</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="D247" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="E247" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="F247" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G247" s="0" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="C248" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="C248" s="0" t="s">
+      <c r="D248" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="E248" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="D248" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="E248" s="0" t="s">
+      <c r="F248" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G248" s="0" t="s">
         <v>682</v>
-      </c>
-      <c r="F248" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G248" s="0" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="C249" s="0" t="s">
+      <c r="D249" s="0" t="s">
         <v>686</v>
       </c>
-      <c r="D249" s="0" t="s">
+      <c r="E249" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="E249" s="0" t="s">
+      <c r="F249" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G249" s="0" t="s">
         <v>688</v>
-      </c>
-      <c r="F249" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G249" s="0" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="C250" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="C250" s="0" t="s">
+      <c r="D250" s="0" t="s">
         <v>692</v>
       </c>
-      <c r="D250" s="0" t="s">
+      <c r="E250" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="E250" s="0" t="s">
+      <c r="F250" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G250" s="0" t="s">
         <v>694</v>
-      </c>
-      <c r="F250" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G250" s="0" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="C251" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="C251" s="0" t="s">
+      <c r="D251" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="E251" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="D251" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>699</v>
-      </c>
       <c r="F251" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G252" s="0" t="s">
         <v>700</v>
-      </c>
-      <c r="C252" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="D252" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="E252" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="F252" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G252" s="0" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C253" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="E253" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="D253" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="E253" s="0" t="s">
-        <v>699</v>
-      </c>
       <c r="F253" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G253" s="0" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="C254" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="C254" s="0" t="s">
+      <c r="D254" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="D254" s="0" t="s">
+      <c r="E254" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="E254" s="0" t="s">
+      <c r="F254" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="F254" s="4" t="s">
+      <c r="G254" s="0" t="s">
         <v>708</v>
-      </c>
-      <c r="G254" s="0" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="C255" s="0" t="s">
         <v>711</v>
       </c>
-      <c r="C255" s="0" t="s">
+      <c r="D255" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="D255" s="0" t="s">
+      <c r="E255" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="E255" s="0" t="s">
+      <c r="F255" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G255" s="0" t="s">
         <v>714</v>
-      </c>
-      <c r="F255" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G255" s="0" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C256" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="D256" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="D256" s="0" t="s">
+      <c r="E256" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="E256" s="0" t="s">
+      <c r="F256" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G256" s="0" t="s">
         <v>714</v>
-      </c>
-      <c r="F256" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G256" s="0" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C257" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="D257" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="D257" s="0" t="s">
+      <c r="E257" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="E257" s="0" t="s">
+      <c r="F257" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G257" s="0" t="s">
         <v>714</v>
-      </c>
-      <c r="F257" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G257" s="0" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="C258" s="0" t="s">
         <v>717</v>
       </c>
-      <c r="C258" s="0" t="s">
+      <c r="D258" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="E258" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="D258" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="E258" s="0" t="s">
+      <c r="F258" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G258" s="0" t="s">
         <v>719</v>
-      </c>
-      <c r="F258" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G258" s="0" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C259" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="D259" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="E259" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="D259" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="E259" s="0" t="s">
+      <c r="F259" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G259" s="0" t="s">
         <v>719</v>
-      </c>
-      <c r="F259" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G259" s="0" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="C260" s="0" t="s">
         <v>723</v>
       </c>
-      <c r="C260" s="0" t="s">
+      <c r="D260" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="E260" s="0" t="s">
         <v>724</v>
       </c>
-      <c r="D260" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="E260" s="0" t="s">
+      <c r="F260" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G260" s="0" t="s">
         <v>725</v>
-      </c>
-      <c r="F260" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G260" s="0" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="C261" s="0" t="s">
         <v>728</v>
       </c>
-      <c r="C261" s="0" t="s">
+      <c r="D261" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="E261" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="D261" s="0" t="s">
-        <v>729</v>
-      </c>
-      <c r="E261" s="0" t="s">
+      <c r="F261" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G261" s="0" t="s">
         <v>730</v>
-      </c>
-      <c r="F261" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G261" s="0" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="C262" s="0" t="s">
         <v>733</v>
       </c>
-      <c r="C262" s="0" t="s">
+      <c r="D262" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="E262" s="0" t="s">
         <v>734</v>
       </c>
-      <c r="D262" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="E262" s="0" t="s">
+      <c r="F262" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G262" s="0" t="s">
         <v>735</v>
-      </c>
-      <c r="F262" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G262" s="0" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C263" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="D263" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="E263" s="0" t="s">
         <v>734</v>
       </c>
-      <c r="D263" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="E263" s="0" t="s">
+      <c r="F263" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G263" s="0" t="s">
         <v>735</v>
-      </c>
-      <c r="F263" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G263" s="0" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C264" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="D264" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="E264" s="0" t="s">
         <v>734</v>
       </c>
-      <c r="D264" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="E264" s="0" t="s">
+      <c r="F264" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G264" s="0" t="s">
         <v>735</v>
-      </c>
-      <c r="F264" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G264" s="0" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C265" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="E265" s="0" t="s">
         <v>734</v>
       </c>
-      <c r="D265" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="E265" s="0" t="s">
+      <c r="F265" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G265" s="0" t="s">
         <v>735</v>
-      </c>
-      <c r="F265" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G265" s="0" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C266" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="D266" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="E266" s="0" t="s">
         <v>734</v>
       </c>
-      <c r="D266" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="E266" s="0" t="s">
+      <c r="F266" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G266" s="0" t="s">
         <v>735</v>
-      </c>
-      <c r="F266" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G266" s="0" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="C267" s="0" t="s">
         <v>742</v>
       </c>
-      <c r="C267" s="0" t="s">
+      <c r="D267" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="E267" s="0" t="s">
         <v>743</v>
       </c>
-      <c r="D267" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="E267" s="0" t="s">
+      <c r="F267" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G267" s="0" t="s">
         <v>744</v>
-      </c>
-      <c r="F267" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G267" s="0" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="D268" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="E268" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G268" s="0" t="s">
         <v>746</v>
-      </c>
-      <c r="C268" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="D268" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="E268" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="F268" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G268" s="0" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C269" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="D269" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="E269" s="0" t="s">
         <v>743</v>
       </c>
-      <c r="D269" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="E269" s="0" t="s">
-        <v>744</v>
-      </c>
       <c r="F269" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G269" s="0" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="C270" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="C270" s="0" t="s">
+      <c r="D270" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="E270" s="0" t="s">
         <v>751</v>
       </c>
-      <c r="D270" s="0" t="s">
-        <v>751</v>
-      </c>
-      <c r="E270" s="0" t="s">
+      <c r="F270" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G270" s="0" t="s">
         <v>752</v>
-      </c>
-      <c r="F270" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G270" s="0" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D271" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="E271" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G271" s="0" t="s">
         <v>754</v>
-      </c>
-      <c r="C271" s="0" t="s">
-        <v>751</v>
-      </c>
-      <c r="D271" s="0" t="s">
-        <v>751</v>
-      </c>
-      <c r="E271" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="F271" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G271" s="0" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="C272" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="C272" s="0" t="s">
+      <c r="D272" s="0" t="s">
         <v>758</v>
       </c>
-      <c r="D272" s="0" t="s">
+      <c r="E272" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="E272" s="0" t="s">
+      <c r="F272" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G272" s="0" t="s">
         <v>760</v>
-      </c>
-      <c r="F272" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G272" s="0" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C273" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="D273" s="0" t="s">
         <v>758</v>
       </c>
-      <c r="D273" s="0" t="s">
+      <c r="E273" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="E273" s="0" t="s">
+      <c r="F273" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G273" s="0" t="s">
         <v>760</v>
-      </c>
-      <c r="F273" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G273" s="0" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="D274" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E274" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="G274" s="0" t="s">
         <v>763</v>
-      </c>
-      <c r="C274" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="D274" s="0" t="s">
-        <v>759</v>
-      </c>
-      <c r="E274" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="F274" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="G274" s="0" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="D275" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E275" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="G275" s="0" t="s">
         <v>765</v>
-      </c>
-      <c r="C275" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="D275" s="0" t="s">
-        <v>759</v>
-      </c>
-      <c r="E275" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="F275" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="G275" s="0" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C276" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="D276" s="0" t="s">
         <v>758</v>
       </c>
-      <c r="D276" s="0" t="s">
+      <c r="E276" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="E276" s="0" t="s">
-        <v>760</v>
-      </c>
       <c r="F276" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G276" s="0" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="C277" s="0" t="s">
         <v>769</v>
       </c>
-      <c r="C277" s="0" t="s">
+      <c r="D277" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="E277" s="0" t="s">
         <v>770</v>
       </c>
-      <c r="D277" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="E277" s="0" t="s">
+      <c r="F277" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G277" s="0" t="s">
         <v>771</v>
-      </c>
-      <c r="F277" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G277" s="0" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B278" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="D278" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="E278" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G278" s="0" t="s">
         <v>773</v>
-      </c>
-      <c r="C278" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="D278" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="E278" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="F278" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G278" s="0" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="C279" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="C279" s="0" t="s">
+      <c r="D279" s="0" t="s">
         <v>777</v>
       </c>
-      <c r="D279" s="0" t="s">
+      <c r="E279" s="0" t="s">
         <v>778</v>
       </c>
-      <c r="E279" s="0" t="s">
+      <c r="F279" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G279" s="0" t="s">
         <v>779</v>
-      </c>
-      <c r="F279" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G279" s="0" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C280" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="C280" s="0" t="s">
+      <c r="D280" s="0" t="s">
         <v>783</v>
       </c>
-      <c r="D280" s="0" t="s">
+      <c r="E280" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="E280" s="0" t="s">
+      <c r="F280" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G280" s="0" t="s">
         <v>785</v>
-      </c>
-      <c r="F280" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G280" s="0" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="C281" s="0" t="s">
         <v>788</v>
       </c>
-      <c r="C281" s="0" t="s">
+      <c r="D281" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="E281" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="D281" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="E281" s="0" t="s">
+      <c r="F281" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G281" s="0" t="s">
         <v>790</v>
-      </c>
-      <c r="F281" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G281" s="0" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" s="0" t="s">
         <v>793</v>
       </c>
-      <c r="C282" s="0" t="s">
+      <c r="D282" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="E282" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="F282" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G282" s="0" t="s">
         <v>794</v>
-      </c>
-      <c r="D282" s="0" t="s">
-        <v>794</v>
-      </c>
-      <c r="E282" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="F282" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G282" s="0" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="C283" s="0" t="s">
         <v>797</v>
       </c>
-      <c r="C283" s="0" t="s">
+      <c r="D283" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="E283" s="0" t="s">
         <v>798</v>
       </c>
-      <c r="D283" s="0" t="s">
+      <c r="F283" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="E283" s="0" t="s">
+      <c r="G283" s="0" t="s">
         <v>799</v>
-      </c>
-      <c r="F283" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="G283" s="0" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="C284" s="0" t="s">
         <v>802</v>
       </c>
-      <c r="C284" s="0" t="s">
+      <c r="D284" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="E284" s="0" t="s">
         <v>803</v>
       </c>
-      <c r="D284" s="0" t="s">
-        <v>803</v>
-      </c>
-      <c r="E284" s="0" t="s">
+      <c r="F284" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G284" s="0" t="s">
         <v>804</v>
-      </c>
-      <c r="F284" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G284" s="0" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="C285" s="0" t="s">
         <v>807</v>
       </c>
-      <c r="C285" s="0" t="s">
+      <c r="D285" s="0" t="s">
         <v>808</v>
       </c>
-      <c r="D285" s="0" t="s">
+      <c r="E285" s="0" t="s">
         <v>809</v>
       </c>
-      <c r="E285" s="0" t="s">
+      <c r="F285" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G285" s="0" t="s">
         <v>810</v>
-      </c>
-      <c r="F285" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G285" s="0" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="C286" s="0" t="s">
         <v>813</v>
       </c>
-      <c r="C286" s="0" t="s">
+      <c r="D286" s="0" t="s">
         <v>814</v>
       </c>
-      <c r="D286" s="0" t="s">
+      <c r="E286" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="E286" s="0" t="s">
+      <c r="F286" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G286" s="0" t="s">
         <v>816</v>
-      </c>
-      <c r="F286" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G286" s="0" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C287" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="D287" s="0" t="s">
         <v>814</v>
       </c>
-      <c r="D287" s="0" t="s">
+      <c r="E287" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="E287" s="0" t="s">
+      <c r="F287" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G287" s="0" t="s">
         <v>816</v>
-      </c>
-      <c r="F287" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G287" s="0" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C288" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="D288" s="0" t="s">
         <v>814</v>
       </c>
-      <c r="D288" s="0" t="s">
+      <c r="E288" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="E288" s="0" t="s">
+      <c r="F288" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G288" s="0" t="s">
         <v>816</v>
-      </c>
-      <c r="F288" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G288" s="0" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="C289" s="0" t="s">
         <v>821</v>
       </c>
-      <c r="C289" s="0" t="s">
+      <c r="D289" s="0" t="s">
         <v>822</v>
       </c>
-      <c r="D289" s="0" t="s">
+      <c r="E289" s="0" t="s">
         <v>823</v>
       </c>
-      <c r="E289" s="0" t="s">
-        <v>824</v>
-      </c>
       <c r="F289" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G289" s="0" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="C290" s="0" t="s">
         <v>826</v>
       </c>
-      <c r="C290" s="0" t="s">
+      <c r="D290" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="E290" s="0" t="s">
         <v>827</v>
       </c>
-      <c r="D290" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="E290" s="0" t="s">
+      <c r="F290" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G290" s="0" t="s">
         <v>828</v>
-      </c>
-      <c r="F290" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G290" s="0" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="C291" s="0" t="s">
         <v>831</v>
       </c>
-      <c r="C291" s="0" t="s">
+      <c r="D291" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="E291" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="F291" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G291" s="0" t="s">
         <v>832</v>
-      </c>
-      <c r="D291" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="E291" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="F291" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G291" s="0" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="D292" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="E292" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="F292" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G292" s="0" t="s">
         <v>834</v>
-      </c>
-      <c r="C292" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="D292" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="E292" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="F292" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G292" s="0" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="C293" s="0" t="s">
         <v>837</v>
       </c>
-      <c r="C293" s="0" t="s">
+      <c r="D293" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="E293" s="0" t="s">
         <v>838</v>
       </c>
-      <c r="D293" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="E293" s="0" t="s">
+      <c r="F293" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G293" s="0" t="s">
         <v>839</v>
-      </c>
-      <c r="F293" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G293" s="0" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="C294" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="C294" s="0" t="s">
+      <c r="D294" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="E294" s="0" t="s">
         <v>843</v>
       </c>
-      <c r="D294" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="E294" s="0" t="s">
+      <c r="F294" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G294" s="0" t="s">
         <v>844</v>
-      </c>
-      <c r="F294" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G294" s="0" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="C295" s="0" t="s">
         <v>847</v>
       </c>
-      <c r="C295" s="0" t="s">
+      <c r="D295" s="0" t="s">
         <v>848</v>
       </c>
-      <c r="D295" s="0" t="s">
+      <c r="E295" s="0" t="s">
         <v>849</v>
       </c>
-      <c r="E295" s="0" t="s">
+      <c r="F295" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G295" s="0" t="s">
         <v>850</v>
-      </c>
-      <c r="F295" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G295" s="0" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="C296" s="0" t="s">
         <v>853</v>
       </c>
-      <c r="C296" s="0" t="s">
+      <c r="D296" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="E296" s="0" t="s">
         <v>854</v>
       </c>
-      <c r="D296" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="E296" s="0" t="s">
+      <c r="F296" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G296" s="0" t="s">
         <v>855</v>
-      </c>
-      <c r="F296" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G296" s="0" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="C297" s="0" t="s">
         <v>858</v>
       </c>
-      <c r="C297" s="0" t="s">
+      <c r="D297" s="0" t="s">
         <v>859</v>
       </c>
-      <c r="D297" s="0" t="s">
+      <c r="E297" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="E297" s="0" t="s">
+      <c r="F297" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G297" s="0" t="s">
         <v>861</v>
-      </c>
-      <c r="F297" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G297" s="0" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B298" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="D298" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="E298" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="F298" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G298" s="0" t="s">
         <v>863</v>
-      </c>
-      <c r="C298" s="0" t="s">
-        <v>859</v>
-      </c>
-      <c r="D298" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="E298" s="0" t="s">
-        <v>861</v>
-      </c>
-      <c r="F298" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G298" s="0" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="C299" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="C299" s="0" t="s">
+      <c r="D299" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="E299" s="0" t="s">
         <v>867</v>
       </c>
-      <c r="D299" s="0" t="s">
-        <v>867</v>
-      </c>
-      <c r="E299" s="0" t="s">
+      <c r="F299" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G299" s="0" t="s">
         <v>868</v>
-      </c>
-      <c r="F299" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G299" s="0" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="C300" s="0" t="s">
         <v>871</v>
       </c>
-      <c r="C300" s="0" t="s">
+      <c r="D300" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="E300" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="D300" s="0" t="s">
-        <v>872</v>
-      </c>
-      <c r="E300" s="0" t="s">
+      <c r="F300" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G300" s="0" t="s">
         <v>873</v>
-      </c>
-      <c r="F300" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G300" s="0" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="C301" s="0" t="s">
         <v>876</v>
       </c>
-      <c r="C301" s="0" t="s">
+      <c r="D301" s="0" t="s">
         <v>877</v>
       </c>
-      <c r="D301" s="0" t="s">
+      <c r="E301" s="0" t="s">
         <v>878</v>
       </c>
-      <c r="E301" s="0" t="s">
+      <c r="F301" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G301" s="0" t="s">
         <v>879</v>
-      </c>
-      <c r="F301" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G301" s="0" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="C302" s="0" t="s">
         <v>882</v>
       </c>
-      <c r="C302" s="0" t="s">
+      <c r="D302" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="D302" s="0" t="s">
+      <c r="E302" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="E302" s="0" t="s">
+      <c r="F302" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G302" s="0" t="s">
         <v>885</v>
-      </c>
-      <c r="F302" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G302" s="0" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C303" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="D303" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="D303" s="0" t="s">
+      <c r="E303" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="E303" s="0" t="s">
+      <c r="F303" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G303" s="0" t="s">
         <v>885</v>
-      </c>
-      <c r="F303" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G303" s="0" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="C304" s="0" t="s">
         <v>889</v>
       </c>
-      <c r="C304" s="0" t="s">
+      <c r="D304" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="D304" s="0" t="s">
+      <c r="E304" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="E304" s="0" t="s">
+      <c r="F304" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G304" s="0" t="s">
         <v>892</v>
-      </c>
-      <c r="F304" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G304" s="0" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C305" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="D305" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="D305" s="0" t="s">
+      <c r="E305" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="E305" s="0" t="s">
+      <c r="F305" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G305" s="0" t="s">
         <v>892</v>
-      </c>
-      <c r="F305" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G305" s="0" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C306" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="D306" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="E306" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="F306" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G306" s="0" t="s">
         <v>895</v>
-      </c>
-      <c r="C306" s="0" t="s">
-        <v>890</v>
-      </c>
-      <c r="D306" s="0" t="s">
-        <v>891</v>
-      </c>
-      <c r="E306" s="0" t="s">
-        <v>892</v>
-      </c>
-      <c r="F306" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G306" s="0" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="E307" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="F307" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G307" s="0" t="s">
         <v>897</v>
-      </c>
-      <c r="C307" s="0" t="s">
-        <v>890</v>
-      </c>
-      <c r="D307" s="0" t="s">
-        <v>891</v>
-      </c>
-      <c r="E307" s="0" t="s">
-        <v>892</v>
-      </c>
-      <c r="F307" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G307" s="0" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="C308" s="0" t="s">
         <v>900</v>
       </c>
-      <c r="C308" s="0" t="s">
+      <c r="D308" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="E308" s="0" t="s">
         <v>901</v>
       </c>
-      <c r="D308" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="E308" s="0" t="s">
+      <c r="F308" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G308" s="0" t="s">
         <v>902</v>
-      </c>
-      <c r="F308" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G308" s="0" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="E309" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="F309" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G309" s="0" t="s">
         <v>904</v>
-      </c>
-      <c r="C309" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="D309" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="E309" s="0" t="s">
-        <v>902</v>
-      </c>
-      <c r="F309" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G309" s="0" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C310" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="D310" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="E310" s="0" t="s">
         <v>901</v>
       </c>
-      <c r="D310" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="E310" s="0" t="s">
-        <v>902</v>
-      </c>
       <c r="F310" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G310" s="0" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C311" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="D311" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="E311" s="0" t="s">
         <v>901</v>
       </c>
-      <c r="D311" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="E311" s="0" t="s">
-        <v>902</v>
-      </c>
       <c r="F311" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G311" s="0" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B312" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C312" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="E312" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="F312" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G312" s="0" t="s">
         <v>908</v>
-      </c>
-      <c r="C312" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="D312" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="E312" s="0" t="s">
-        <v>902</v>
-      </c>
-      <c r="F312" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G312" s="0" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C313" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="D313" s="0" t="s">
         <v>910</v>
       </c>
-      <c r="B313" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="C313" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="D313" s="0" t="s">
+      <c r="E313" s="0" t="s">
         <v>911</v>
       </c>
-      <c r="E313" s="0" t="s">
+      <c r="F313" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G313" s="0" t="s">
         <v>912</v>
-      </c>
-      <c r="F313" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G313" s="0" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C314" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="D314" s="0" t="s">
         <v>910</v>
       </c>
-      <c r="B314" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="C314" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="D314" s="0" t="s">
+      <c r="E314" s="0" t="s">
         <v>911</v>
       </c>
-      <c r="E314" s="0" t="s">
-        <v>912</v>
-      </c>
       <c r="F314" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G314" s="0" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C315" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="D315" s="0" t="s">
         <v>910</v>
       </c>
-      <c r="B315" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="C315" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="D315" s="0" t="s">
+      <c r="E315" s="0" t="s">
         <v>911</v>
       </c>
-      <c r="E315" s="0" t="s">
-        <v>912</v>
-      </c>
       <c r="F315" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G315" s="0" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C316" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="D316" s="0" t="s">
         <v>910</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="C316" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="D316" s="0" t="s">
+      <c r="E316" s="0" t="s">
         <v>911</v>
       </c>
-      <c r="E316" s="0" t="s">
-        <v>912</v>
-      </c>
       <c r="F316" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G316" s="0" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="D317" s="0" t="s">
         <v>910</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="C317" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="D317" s="0" t="s">
+      <c r="E317" s="0" t="s">
         <v>911</v>
       </c>
-      <c r="E317" s="0" t="s">
-        <v>912</v>
-      </c>
       <c r="F317" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G317" s="0" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="C318" s="0" t="s">
         <v>917</v>
       </c>
-      <c r="C318" s="0" t="s">
+      <c r="D318" s="0" t="s">
         <v>918</v>
       </c>
-      <c r="D318" s="0" t="s">
+      <c r="E318" s="0" t="s">
         <v>919</v>
       </c>
-      <c r="E318" s="0" t="s">
+      <c r="F318" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G318" s="0" t="s">
         <v>920</v>
-      </c>
-      <c r="F318" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G318" s="0" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>501</v>
       </c>
       <c r="C319" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="D319" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="E319" s="0" t="s">
         <v>923</v>
       </c>
-      <c r="D319" s="0" t="s">
-        <v>923</v>
-      </c>
-      <c r="E319" s="0" t="s">
+      <c r="F319" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G319" s="0" t="s">
         <v>924</v>
-      </c>
-      <c r="F319" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G319" s="0" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>531</v>
       </c>
       <c r="C320" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="D320" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="E320" s="0" t="s">
         <v>927</v>
       </c>
-      <c r="D320" s="0" t="s">
+      <c r="F320" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="E320" s="0" t="s">
+      <c r="G320" s="0" t="s">
         <v>928</v>
-      </c>
-      <c r="F320" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="G320" s="0" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="C321" s="0" t="s">
         <v>931</v>
       </c>
-      <c r="C321" s="0" t="s">
+      <c r="D321" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="E321" s="0" t="s">
         <v>932</v>
       </c>
-      <c r="D321" s="0" t="s">
-        <v>932</v>
-      </c>
-      <c r="E321" s="0" t="s">
+      <c r="F321" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G321" s="0" t="s">
         <v>933</v>
-      </c>
-      <c r="F321" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G321" s="0" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="C322" s="0" t="s">
         <v>936</v>
       </c>
-      <c r="C322" s="0" t="s">
+      <c r="D322" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="D322" s="0" t="s">
+      <c r="E322" s="0" t="s">
         <v>938</v>
       </c>
-      <c r="E322" s="0" t="s">
+      <c r="F322" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G322" s="0" t="s">
         <v>939</v>
-      </c>
-      <c r="F322" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G322" s="0" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C323" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="D323" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="D323" s="0" t="s">
+      <c r="E323" s="0" t="s">
         <v>938</v>
       </c>
-      <c r="E323" s="0" t="s">
-        <v>939</v>
-      </c>
       <c r="F323" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G323" s="0" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C324" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="D324" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="E324" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G324" s="0" t="s">
         <v>942</v>
-      </c>
-      <c r="C324" s="0" t="s">
-        <v>937</v>
-      </c>
-      <c r="D324" s="0" t="s">
-        <v>938</v>
-      </c>
-      <c r="E324" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="F324" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G324" s="0" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C325" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="D325" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="E325" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G325" s="0" t="s">
         <v>944</v>
-      </c>
-      <c r="C325" s="0" t="s">
-        <v>937</v>
-      </c>
-      <c r="D325" s="0" t="s">
-        <v>938</v>
-      </c>
-      <c r="E325" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="F325" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G325" s="0" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="D326" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="E326" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G326" s="0" t="s">
         <v>946</v>
-      </c>
-      <c r="C326" s="0" t="s">
-        <v>937</v>
-      </c>
-      <c r="D326" s="0" t="s">
-        <v>938</v>
-      </c>
-      <c r="E326" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="F326" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G326" s="0" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="C327" s="0" t="s">
         <v>949</v>
       </c>
-      <c r="C327" s="0" t="s">
+      <c r="D327" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="E327" s="0" t="s">
         <v>950</v>
       </c>
-      <c r="D327" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="E327" s="0" t="s">
+      <c r="F327" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G327" s="0" t="s">
         <v>951</v>
-      </c>
-      <c r="F327" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G327" s="0" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="C328" s="0" t="s">
         <v>954</v>
       </c>
-      <c r="C328" s="0" t="s">
+      <c r="D328" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="E328" s="0" t="s">
         <v>955</v>
       </c>
-      <c r="D328" s="0" t="s">
-        <v>955</v>
-      </c>
-      <c r="E328" s="0" t="s">
+      <c r="F328" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G328" s="0" t="s">
         <v>956</v>
-      </c>
-      <c r="F328" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G328" s="0" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="D329" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="E329" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="F329" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G329" s="0" t="s">
         <v>958</v>
-      </c>
-      <c r="C329" s="0" t="s">
-        <v>955</v>
-      </c>
-      <c r="D329" s="0" t="s">
-        <v>955</v>
-      </c>
-      <c r="E329" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="F329" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G329" s="0" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="C330" s="0" t="s">
         <v>961</v>
       </c>
-      <c r="C330" s="0" t="s">
+      <c r="D330" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="E330" s="0" t="s">
         <v>962</v>
       </c>
-      <c r="D330" s="0" t="s">
-        <v>962</v>
-      </c>
-      <c r="E330" s="0" t="s">
+      <c r="F330" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G330" s="0" t="s">
         <v>963</v>
-      </c>
-      <c r="F330" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G330" s="0" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C331" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="D331" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="E331" s="0" t="s">
         <v>962</v>
       </c>
-      <c r="D331" s="0" t="s">
-        <v>962</v>
-      </c>
-      <c r="E331" s="0" t="s">
+      <c r="F331" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G331" s="0" t="s">
         <v>963</v>
-      </c>
-      <c r="F331" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G331" s="0" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="E332" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="F332" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G332" s="0" t="s">
         <v>966</v>
-      </c>
-      <c r="C332" s="0" t="s">
-        <v>962</v>
-      </c>
-      <c r="D332" s="0" t="s">
-        <v>962</v>
-      </c>
-      <c r="E332" s="0" t="s">
-        <v>963</v>
-      </c>
-      <c r="F332" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G332" s="0" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="C333" s="0" t="s">
         <v>969</v>
       </c>
-      <c r="C333" s="0" t="s">
+      <c r="D333" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="E333" s="0" t="s">
         <v>970</v>
       </c>
-      <c r="D333" s="0" t="s">
-        <v>970</v>
-      </c>
-      <c r="E333" s="0" t="s">
+      <c r="F333" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G333" s="0" t="s">
         <v>971</v>
-      </c>
-      <c r="F333" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G333" s="0" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="C334" s="0" t="s">
         <v>974</v>
       </c>
-      <c r="C334" s="0" t="s">
+      <c r="D334" s="0" t="s">
         <v>975</v>
       </c>
-      <c r="D334" s="0" t="s">
+      <c r="E334" s="0" t="s">
         <v>976</v>
       </c>
-      <c r="E334" s="0" t="s">
+      <c r="F334" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G334" s="0" t="s">
         <v>977</v>
-      </c>
-      <c r="F334" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G334" s="0" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="C335" s="0" t="s">
         <v>980</v>
       </c>
-      <c r="C335" s="0" t="s">
+      <c r="D335" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E335" s="0" t="s">
         <v>981</v>
       </c>
-      <c r="D335" s="0" t="s">
-        <v>981</v>
-      </c>
-      <c r="E335" s="0" t="s">
+      <c r="F335" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G335" s="0" t="s">
         <v>982</v>
-      </c>
-      <c r="F335" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G335" s="0" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E336" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="F336" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G336" s="0" t="s">
         <v>984</v>
-      </c>
-      <c r="C336" s="0" t="s">
-        <v>981</v>
-      </c>
-      <c r="D336" s="0" t="s">
-        <v>981</v>
-      </c>
-      <c r="E336" s="0" t="s">
-        <v>982</v>
-      </c>
-      <c r="F336" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G336" s="0" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="C337" s="0" t="s">
         <v>987</v>
       </c>
-      <c r="C337" s="0" t="s">
+      <c r="D337" s="0" t="s">
         <v>988</v>
       </c>
-      <c r="D337" s="0" t="s">
+      <c r="E337" s="0" t="s">
         <v>989</v>
       </c>
-      <c r="E337" s="0" t="s">
+      <c r="F337" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G337" s="0" t="s">
         <v>990</v>
-      </c>
-      <c r="F337" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G337" s="0" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="C338" s="0" t="s">
         <v>993</v>
       </c>
-      <c r="C338" s="0" t="s">
+      <c r="D338" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="E338" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="D338" s="0" t="s">
-        <v>994</v>
-      </c>
-      <c r="E338" s="0" t="s">
+      <c r="F338" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G338" s="0" t="s">
         <v>995</v>
-      </c>
-      <c r="F338" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G338" s="0" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="C339" s="0" t="s">
         <v>998</v>
       </c>
-      <c r="C339" s="0" t="s">
+      <c r="D339" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="E339" s="0" t="s">
         <v>999</v>
       </c>
-      <c r="D339" s="0" t="s">
-        <v>999</v>
-      </c>
-      <c r="E339" s="0" t="s">
+      <c r="F339" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G339" s="0" t="s">
         <v>1000</v>
-      </c>
-      <c r="F339" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G339" s="0" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="C340" s="0" t="s">
         <v>1003</v>
       </c>
-      <c r="C340" s="0" t="s">
+      <c r="D340" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E340" s="0" t="s">
         <v>1004</v>
       </c>
-      <c r="D340" s="0" t="s">
+      <c r="F340" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="E340" s="0" t="s">
+      <c r="G340" s="0" t="s">
         <v>1005</v>
-      </c>
-      <c r="F340" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G340" s="0" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C341" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E341" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F341" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G341" s="0" t="s">
         <v>1007</v>
-      </c>
-      <c r="C341" s="0" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D341" s="0" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E341" s="0" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F341" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G341" s="0" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E342" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F342" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G342" s="0" t="s">
         <v>1009</v>
-      </c>
-      <c r="C342" s="0" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D342" s="0" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E342" s="0" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F342" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G342" s="0" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="C343" s="0" t="s">
         <v>1012</v>
       </c>
-      <c r="C343" s="0" t="s">
+      <c r="D343" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E343" s="0" t="s">
         <v>1013</v>
       </c>
-      <c r="D343" s="0" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E343" s="0" t="s">
+      <c r="F343" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G343" s="0" t="s">
         <v>1014</v>
-      </c>
-      <c r="F343" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G343" s="0" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="C344" s="0" t="s">
         <v>1017</v>
       </c>
-      <c r="C344" s="0" t="s">
+      <c r="D344" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E344" s="0" t="s">
         <v>1018</v>
       </c>
-      <c r="D344" s="0" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E344" s="0" t="s">
+      <c r="F344" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G344" s="0" t="s">
         <v>1019</v>
-      </c>
-      <c r="F344" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G344" s="0" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="C345" s="0" t="s">
         <v>1022</v>
       </c>
-      <c r="C345" s="0" t="s">
+      <c r="D345" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E345" s="0" t="s">
         <v>1023</v>
       </c>
-      <c r="D345" s="0" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E345" s="0" t="s">
+      <c r="F345" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G345" s="0" t="s">
         <v>1024</v>
-      </c>
-      <c r="F345" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G345" s="0" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B346" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E346" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F346" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G346" s="0" t="s">
         <v>1026</v>
-      </c>
-      <c r="C346" s="0" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D346" s="0" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E346" s="0" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F346" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G346" s="0" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="C347" s="0" t="s">
         <v>1029</v>
       </c>
-      <c r="C347" s="0" t="s">
+      <c r="D347" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E347" s="0" t="s">
         <v>1030</v>
       </c>
-      <c r="D347" s="0" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E347" s="0" t="s">
+      <c r="F347" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G347" s="0" t="s">
         <v>1031</v>
-      </c>
-      <c r="F347" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G347" s="0" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="C348" s="0" t="s">
         <v>1034</v>
       </c>
-      <c r="C348" s="0" t="s">
+      <c r="D348" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E348" s="0" t="s">
         <v>1035</v>
       </c>
-      <c r="D348" s="0" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E348" s="0" t="s">
+      <c r="F348" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G348" s="0" t="s">
         <v>1036</v>
-      </c>
-      <c r="F348" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G348" s="0" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="C349" s="0" t="s">
         <v>1039</v>
       </c>
-      <c r="C349" s="0" t="s">
+      <c r="D349" s="0" t="s">
         <v>1040</v>
       </c>
-      <c r="D349" s="0" t="s">
+      <c r="E349" s="0" t="s">
         <v>1041</v>
       </c>
-      <c r="E349" s="0" t="s">
+      <c r="F349" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G349" s="0" t="s">
         <v>1042</v>
-      </c>
-      <c r="F349" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G349" s="0" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="C350" s="0" t="s">
         <v>1045</v>
       </c>
-      <c r="C350" s="0" t="s">
+      <c r="D350" s="0" t="s">
         <v>1046</v>
       </c>
-      <c r="D350" s="0" t="s">
+      <c r="E350" s="0" t="s">
         <v>1047</v>
       </c>
-      <c r="E350" s="0" t="s">
+      <c r="F350" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G350" s="0" t="s">
         <v>1048</v>
-      </c>
-      <c r="F350" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G350" s="0" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B351" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D351" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E351" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F351" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G351" s="0" t="s">
         <v>1050</v>
-      </c>
-      <c r="C351" s="0" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D351" s="0" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E351" s="0" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F351" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G351" s="0" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
